--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3347443333333334</v>
+        <v>0.9771596666666666</v>
       </c>
       <c r="H2">
-        <v>1.004233</v>
+        <v>2.931479</v>
       </c>
       <c r="I2">
-        <v>0.162471248533204</v>
+        <v>0.8814179881516608</v>
       </c>
       <c r="J2">
-        <v>0.162471248533204</v>
+        <v>0.8814179881516608</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8985673333333333</v>
+        <v>4.590669333333333</v>
       </c>
       <c r="N2">
-        <v>2.695702</v>
+        <v>13.772008</v>
       </c>
       <c r="O2">
-        <v>0.1174926698436198</v>
+        <v>0.4847147243274596</v>
       </c>
       <c r="P2">
-        <v>0.1174926698436198</v>
+        <v>0.4847147243274596</v>
       </c>
       <c r="Q2">
-        <v>0.3007903229517778</v>
+        <v>4.485816915536889</v>
       </c>
       <c r="R2">
-        <v>2.707112906566</v>
+        <v>40.372352239832</v>
       </c>
       <c r="S2">
-        <v>0.01908918076299244</v>
+        <v>0.4272362771441963</v>
       </c>
       <c r="T2">
-        <v>0.01908918076299244</v>
+        <v>0.4272362771441963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3347443333333334</v>
+        <v>0.9771596666666666</v>
       </c>
       <c r="H3">
-        <v>1.004233</v>
+        <v>2.931479</v>
       </c>
       <c r="I3">
-        <v>0.162471248533204</v>
+        <v>0.8814179881516608</v>
       </c>
       <c r="J3">
-        <v>0.162471248533204</v>
+        <v>0.8814179881516608</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,60 +611,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.590669333333333</v>
+        <v>4.880199</v>
       </c>
       <c r="N3">
-        <v>13.772008</v>
+        <v>14.640597</v>
       </c>
       <c r="O3">
-        <v>0.6002555137873887</v>
+        <v>0.5152852756725405</v>
       </c>
       <c r="P3">
-        <v>0.6002555137873886</v>
+        <v>0.5152852756725405</v>
       </c>
       <c r="Q3">
-        <v>1.536700545540445</v>
+        <v>4.768733628107</v>
       </c>
       <c r="R3">
-        <v>13.830304909864</v>
+        <v>42.918602652963</v>
       </c>
       <c r="S3">
-        <v>0.09752426276397691</v>
+        <v>0.4541817110074646</v>
       </c>
       <c r="T3">
-        <v>0.09752426276397688</v>
+        <v>0.4541817110074646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3347443333333334</v>
+        <v>0.1314626666666667</v>
       </c>
       <c r="H4">
-        <v>1.004233</v>
+        <v>0.394388</v>
       </c>
       <c r="I4">
-        <v>0.162471248533204</v>
+        <v>0.1185820118483391</v>
       </c>
       <c r="J4">
-        <v>0.162471248533204</v>
+        <v>0.1185820118483391</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.158622</v>
+        <v>4.590669333333333</v>
       </c>
       <c r="N4">
-        <v>6.475866</v>
+        <v>13.772008</v>
       </c>
       <c r="O4">
-        <v>0.2822518163689915</v>
+        <v>0.4847147243274596</v>
       </c>
       <c r="P4">
-        <v>0.2822518163689915</v>
+        <v>0.4847147243274596</v>
       </c>
       <c r="Q4">
-        <v>0.7225864823086666</v>
+        <v>0.603501632344889</v>
       </c>
       <c r="R4">
-        <v>6.503278340778001</v>
+        <v>5.431514691104</v>
       </c>
       <c r="S4">
-        <v>0.04585780500623468</v>
+        <v>0.05747844718326323</v>
       </c>
       <c r="T4">
-        <v>0.04585780500623468</v>
+        <v>0.05747844718326323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,371 +702,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1314626666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.394388</v>
+      </c>
+      <c r="I5">
+        <v>0.1185820118483391</v>
+      </c>
+      <c r="J5">
+        <v>0.1185820118483391</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.9771596666666666</v>
-      </c>
-      <c r="H5">
-        <v>2.931479</v>
-      </c>
-      <c r="I5">
-        <v>0.4742734536495697</v>
-      </c>
-      <c r="J5">
-        <v>0.4742734536495696</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8985673333333333</v>
+        <v>4.880199</v>
       </c>
       <c r="N5">
-        <v>2.695702</v>
+        <v>14.640597</v>
       </c>
       <c r="O5">
-        <v>0.1174926698436198</v>
+        <v>0.5152852756725405</v>
       </c>
       <c r="P5">
-        <v>0.1174926698436198</v>
+        <v>0.5152852756725405</v>
       </c>
       <c r="Q5">
-        <v>0.8780437559175555</v>
+        <v>0.641563974404</v>
       </c>
       <c r="R5">
-        <v>7.902393803258</v>
+        <v>5.774075769636</v>
       </c>
       <c r="S5">
-        <v>0.05572365430524223</v>
+        <v>0.06110356466507587</v>
       </c>
       <c r="T5">
-        <v>0.05572365430524222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.9771596666666666</v>
-      </c>
-      <c r="H6">
-        <v>2.931479</v>
-      </c>
-      <c r="I6">
-        <v>0.4742734536495697</v>
-      </c>
-      <c r="J6">
-        <v>0.4742734536495696</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>4.590669333333333</v>
-      </c>
-      <c r="N6">
-        <v>13.772008</v>
-      </c>
-      <c r="O6">
-        <v>0.6002555137873887</v>
-      </c>
-      <c r="P6">
-        <v>0.6002555137873886</v>
-      </c>
-      <c r="Q6">
-        <v>4.485816915536889</v>
-      </c>
-      <c r="R6">
-        <v>40.372352239832</v>
-      </c>
-      <c r="S6">
-        <v>0.2846852555961418</v>
-      </c>
-      <c r="T6">
-        <v>0.2846852555961417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.9771596666666666</v>
-      </c>
-      <c r="H7">
-        <v>2.931479</v>
-      </c>
-      <c r="I7">
-        <v>0.4742734536495697</v>
-      </c>
-      <c r="J7">
-        <v>0.4742734536495696</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.158622</v>
-      </c>
-      <c r="N7">
-        <v>6.475866</v>
-      </c>
-      <c r="O7">
-        <v>0.2822518163689915</v>
-      </c>
-      <c r="P7">
-        <v>0.2822518163689915</v>
-      </c>
-      <c r="Q7">
-        <v>2.109318353979333</v>
-      </c>
-      <c r="R7">
-        <v>18.983865185814</v>
-      </c>
-      <c r="S7">
-        <v>0.1338645437481857</v>
-      </c>
-      <c r="T7">
-        <v>0.1338645437481857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.7484256666666665</v>
-      </c>
-      <c r="H8">
-        <v>2.245277</v>
-      </c>
-      <c r="I8">
-        <v>0.3632552978172263</v>
-      </c>
-      <c r="J8">
-        <v>0.3632552978172263</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.8985673333333333</v>
-      </c>
-      <c r="N8">
-        <v>2.695702</v>
-      </c>
-      <c r="O8">
-        <v>0.1174926698436198</v>
-      </c>
-      <c r="P8">
-        <v>0.1174926698436198</v>
-      </c>
-      <c r="Q8">
-        <v>0.6725108554948888</v>
-      </c>
-      <c r="R8">
-        <v>6.052597699453999</v>
-      </c>
-      <c r="S8">
-        <v>0.04267983477538517</v>
-      </c>
-      <c r="T8">
-        <v>0.04267983477538517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.7484256666666665</v>
-      </c>
-      <c r="H9">
-        <v>2.245277</v>
-      </c>
-      <c r="I9">
-        <v>0.3632552978172263</v>
-      </c>
-      <c r="J9">
-        <v>0.3632552978172263</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.590669333333333</v>
-      </c>
-      <c r="N9">
-        <v>13.772008</v>
-      </c>
-      <c r="O9">
-        <v>0.6002555137873887</v>
-      </c>
-      <c r="P9">
-        <v>0.6002555137873886</v>
-      </c>
-      <c r="Q9">
-        <v>3.435774756246222</v>
-      </c>
-      <c r="R9">
-        <v>30.921972806216</v>
-      </c>
-      <c r="S9">
-        <v>0.21804599542727</v>
-      </c>
-      <c r="T9">
-        <v>0.21804599542727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.7484256666666665</v>
-      </c>
-      <c r="H10">
-        <v>2.245277</v>
-      </c>
-      <c r="I10">
-        <v>0.3632552978172263</v>
-      </c>
-      <c r="J10">
-        <v>0.3632552978172263</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.158622</v>
-      </c>
-      <c r="N10">
-        <v>6.475866</v>
-      </c>
-      <c r="O10">
-        <v>0.2822518163689915</v>
-      </c>
-      <c r="P10">
-        <v>0.2822518163689915</v>
-      </c>
-      <c r="Q10">
-        <v>1.615568109431333</v>
-      </c>
-      <c r="R10">
-        <v>14.540112984882</v>
-      </c>
-      <c r="S10">
-        <v>0.1025294676145711</v>
-      </c>
-      <c r="T10">
-        <v>0.1025294676145711</v>
+        <v>0.06110356466507587</v>
       </c>
     </row>
   </sheetData>
